--- a/Project2/MAPE_Scores.xlsx
+++ b/Project2/MAPE_Scores.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d52fed4db2de6dc/Documents/academic/CUNY SPS/DATA624/DATA624_HW1/Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/skigamba_worldbank_org/Documents/Documents/QSA/DATA Science CUNY/DATA 624 Predictive Analytics/HW2 &amp; Project 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_B7F8AD885FAD21DA3484FEFDB0E2B8CCC3AD6975" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02470D8-1878-4CE7-A1F9-EDB64C0D603A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{8BA34AA2-05D5-4128-9E41-8830E4433ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17F7865-AD23-4209-92F3-0F1AB50D7B97}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="4560" windowWidth="23040" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Model</t>
   </si>
@@ -46,13 +54,23 @@
   </si>
   <si>
     <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +80,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,14 +111,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,67 +401,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>0.11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1.22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1.19</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.24</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.1499889999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.12764130000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.181127</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.1332045</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/MAPE_Scores.xlsx
+++ b/Project2/MAPE_Scores.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/skigamba_worldbank_org/Documents/Documents/QSA/DATA Science CUNY/DATA 624 Predictive Analytics/HW2 &amp; Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nycdoe\Documents\GitHub\DATA624\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{8BA34AA2-05D5-4128-9E41-8830E4433ED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17F7865-AD23-4209-92F3-0F1AB50D7B97}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -60,15 +59,18 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>NNET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,8 +120,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -400,20 +402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +437,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -446,7 +448,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -457,7 +459,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -468,7 +470,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -479,7 +481,7 @@
         <v>0.12764130000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -488,6 +490,17 @@
       </c>
       <c r="C7" s="3">
         <v>0.1332045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.14299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/MAPE_Scores.xlsx
+++ b/Project2/MAPE_Scores.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -43,9 +43,6 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>knn</t>
-  </si>
-  <si>
     <t>OLS</t>
   </si>
   <si>
@@ -62,6 +59,18 @@
   </si>
   <si>
     <t>NNET</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Boosted</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -117,11 +126,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -403,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
@@ -428,7 +438,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>0.90500000000000003</v>
@@ -439,7 +449,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1.22</v>
@@ -450,7 +460,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1.19</v>
@@ -461,7 +471,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>1.24</v>
@@ -472,7 +482,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>1.1499889999999999</v>
@@ -483,7 +493,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>1.181127</v>
@@ -494,13 +504,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="C8" s="3">
         <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Project2/MAPE_Scores.xlsx
+++ b/Project2/MAPE_Scores.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,93 +449,96 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>1.22</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.13500000000000001</v>
+        <v>0.92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1.19</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.13400000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1.24</v>
+        <v>1.1499889999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.13900000000000001</v>
+        <v>0.12764130000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>1.1499889999999999</v>
+        <v>1.181127</v>
       </c>
       <c r="C6" s="3">
-        <v>0.12764130000000001</v>
+        <v>0.1332045</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1.181127</v>
+        <v>1.19</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1332045</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.14299999999999999</v>
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>1.22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>1.24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.13900000000000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
